--- a/output/Media_analise/reactions/União.xlsx
+++ b/output/Media_analise/reactions/União.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D07A7-2C3A-4677-9A73-71401CC9539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB567C-625F-4DDF-8147-0BDBF5CBBF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -223,9 +223,6 @@
     <t>TRANS-RXNBWI-115525.ce.maizeexp.NA+_c0</t>
   </si>
   <si>
-    <t>((Unknown and B9L59_RS05125 and B9L59_RS05140 and Unknown and B9L59_RS05130 and Unknown) or B9L59_RS01575 or (Unknown and B9L59_RS01575))</t>
-  </si>
-  <si>
     <t>D-Fructose 6-phosphate:D-glyceraldehyde-3-phosphate glycolaldehyde transferase_c0</t>
   </si>
   <si>
@@ -452,6 +449,114 @@
   </si>
   <si>
     <t>ACKr</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	fumarate reductase complex</t>
+  </si>
+  <si>
+    <t>SUCDi</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SUCD1</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ENO</t>
+  </si>
+  <si>
+    <t>ICDHxm</t>
+  </si>
+  <si>
+    <t>PFK</t>
+  </si>
+  <si>
+    <t>PGI</t>
+  </si>
+  <si>
+    <t>G6PDH2r</t>
+  </si>
+  <si>
+    <t>TPI</t>
+  </si>
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t>GAPD</t>
+  </si>
+  <si>
+    <t>TKT2</t>
+  </si>
+  <si>
+    <t>FBA</t>
+  </si>
+  <si>
+    <t>ACONT</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>PGM</t>
+  </si>
+  <si>
+    <t>SUCD4</t>
+  </si>
+  <si>
+    <t>NADH6</t>
+  </si>
+  <si>
+    <t>ATPS4rpp</t>
+  </si>
+  <si>
+    <t>FRD2</t>
+  </si>
+  <si>
+    <t>POR_syn</t>
+  </si>
+  <si>
+    <t>ACt2rpp</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>TALA</t>
+  </si>
+  <si>
+    <t>PGL</t>
+  </si>
+  <si>
+    <t>EDD</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>NAt3pp</t>
+  </si>
+  <si>
+    <t>PIt7</t>
+  </si>
+  <si>
+    <t>H2Otex</t>
+  </si>
+  <si>
+    <t>CO2tex</t>
+  </si>
+  <si>
+    <t>O2tex</t>
   </si>
 </sst>
 </file>
@@ -475,7 +580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +602,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,25 +645,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -891,12 +1023,12 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -923,811 +1055,919 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>75</v>
+      <c r="C2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>77</v>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>132</v>
+      <c r="B4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>130</v>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>120</v>
+      <c r="B7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
+      <c r="B8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>81</v>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>126</v>
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>119</v>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>85</v>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>125</v>
+      <c r="B14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>127</v>
+      <c r="B15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>90</v>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>131</v>
+      <c r="B17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>84</v>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>118</v>
+      <c r="B19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>129</v>
+      <c r="B20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
+      <c r="C21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>117</v>
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>78</v>
+      <c r="C24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="B25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="E25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>80</v>
+      <c r="C26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>124</v>
+      <c r="B27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>122</v>
+      <c r="B28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>128</v>
+      <c r="B29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>82</v>
+      <c r="C30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
       </c>
       <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
         <v>134</v>
       </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>135</v>
-      </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>100</v>
+      <c r="B32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>71</v>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>89</v>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>88</v>
+      <c r="B35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>73</v>
+      <c r="C36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>97</v>
+      <c r="B37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="10"/>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>98</v>
+      <c r="B39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>76</v>
+      <c r="C40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>83</v>
+      <c r="B41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>96</v>
+      <c r="B42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>70</v>
+      <c r="C43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1737,6 +1977,11 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:C1048576 E1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
